--- a/public/excel/purchase_offer_form_template.xlsx
+++ b/public/excel/purchase_offer_form_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiga/PhpstormProjects/piyo-kaitori/storage/app/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiga/PhpstormProjects/piyo-kaitori/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE1E94B-941B-724A-A92C-13C6E9FBFF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF6D88-D1BD-D143-9AEC-A4DFFCB7857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>お申込日</t>
   </si>
@@ -50,36 +50,21 @@
     <t>▼買取依頼者情報</t>
   </si>
   <si>
-    <t>買取依頼書ID: 4dbecd3a-3de7-4725-a56d-5dab231f8cc4</t>
-  </si>
-  <si>
     <t>買取方法</t>
   </si>
   <si>
-    <t>持ち込み</t>
-  </si>
-  <si>
     <t>取引方法</t>
   </si>
   <si>
-    <t>ラクマ</t>
-  </si>
-  <si>
     <t>【必須】確認書類</t>
   </si>
   <si>
-    <t>保険証コピー(表裏)</t>
-  </si>
-  <si>
     <t>※写しは発行より３カ月以内のみ有効　※郵送時、運転免許証は２回目以降のお客様に限る</t>
   </si>
   <si>
     <t>フリガナ</t>
   </si>
   <si>
-    <t>アダチタイガ</t>
-  </si>
-  <si>
     <t>生年月日</t>
   </si>
   <si>
@@ -89,48 +74,27 @@
     <t>名前</t>
   </si>
   <si>
-    <t>足立大河</t>
-  </si>
-  <si>
     <t>西暦</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>住所</t>
   </si>
   <si>
     <t>〒</t>
   </si>
   <si>
-    <t>270-1111</t>
-  </si>
-  <si>
-    <t>東京都千代田区1-1-1</t>
-  </si>
-  <si>
     <t>電話番号</t>
   </si>
   <si>
-    <t>090-1234-5678</t>
-  </si>
-  <si>
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
     <t>ご職業</t>
   </si>
   <si>
     <t>　　　　　　</t>
   </si>
   <si>
-    <t>唯一神</t>
-  </si>
-  <si>
     <t>　　</t>
   </si>
   <si>
@@ -155,18 +119,6 @@
     <t>口座名義（カナ）</t>
   </si>
   <si>
-    <t>スイス銀行</t>
-  </si>
-  <si>
-    <t>裏</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>アダチ　タイガ</t>
-  </si>
-  <si>
     <t>▼商品情報</t>
   </si>
   <si>
@@ -186,24 +138,6 @@
   </si>
   <si>
     <t>合計金額（税込）</t>
-  </si>
-  <si>
-    <t>テスト商品F</t>
-  </si>
-  <si>
-    <t>赤・M</t>
-  </si>
-  <si>
-    <t>テスト商品G</t>
-  </si>
-  <si>
-    <t>赤・S</t>
-  </si>
-  <si>
-    <t>テスト商品H</t>
-  </si>
-  <si>
-    <t>青・S</t>
   </si>
   <si>
     <t>10%対象</t>
@@ -466,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -674,13 +608,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,12 +713,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -930,9 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,6 +914,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,11 +935,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2132,7 +2074,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J9"/>
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2170,7 +2112,7 @@
     <row r="1" spans="1:38" ht="19.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="31" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -2232,29 +2174,20 @@
       </c>
       <c r="U2" s="39"/>
       <c r="V2" s="39"/>
-      <c r="W2" s="71">
-        <f ca="1">YEAR(TODAY())</f>
-        <v>2025</v>
-      </c>
+      <c r="W2" s="71"/>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
       <c r="Z2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="AA2" s="39"/>
-      <c r="AB2" s="71">
-        <f ca="1">MONTH(TODAY())</f>
-        <v>1</v>
-      </c>
+      <c r="AB2" s="71"/>
       <c r="AC2" s="39"/>
       <c r="AD2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="AE2" s="39"/>
-      <c r="AF2" s="71">
-        <f ca="1">DAY(TODAY())</f>
-        <v>13</v>
-      </c>
+      <c r="AF2" s="71"/>
       <c r="AG2" s="39"/>
       <c r="AH2" s="38" t="s">
         <v>3</v>
@@ -2278,9 +2211,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="6"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="90" t="s">
-        <v>5</v>
-      </c>
+      <c r="N3" s="89"/>
       <c r="O3" s="67"/>
       <c r="P3" s="67"/>
       <c r="Q3" s="67"/>
@@ -2307,16 +2238,14 @@
     <row r="4" spans="1:38" ht="33" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="42"/>
-      <c r="H4" s="43" t="s">
-        <v>7</v>
-      </c>
+      <c r="H4" s="43"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
@@ -2326,7 +2255,7 @@
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
@@ -2334,9 +2263,7 @@
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
       <c r="W4" s="45"/>
-      <c r="X4" s="91" t="s">
-        <v>9</v>
-      </c>
+      <c r="X4" s="90"/>
       <c r="Y4" s="44"/>
       <c r="Z4" s="44"/>
       <c r="AA4" s="44"/>
@@ -2353,16 +2280,14 @@
     <row r="5" spans="1:38" ht="19.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="49"/>
-      <c r="H5" s="94" t="s">
-        <v>11</v>
-      </c>
+      <c r="H5" s="93"/>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
@@ -2391,7 +2316,7 @@
       <c r="AH5" s="44"/>
       <c r="AI5" s="45"/>
       <c r="AJ5" s="9"/>
-      <c r="AL5" s="104"/>
+      <c r="AL5" s="30"/>
     </row>
     <row r="6" spans="1:38" ht="10.5" customHeight="1">
       <c r="A6" s="8"/>
@@ -2401,8 +2326,8 @@
       <c r="E6" s="51"/>
       <c r="F6" s="52"/>
       <c r="G6" s="53"/>
-      <c r="H6" s="95" t="s">
-        <v>12</v>
+      <c r="H6" s="94" t="s">
+        <v>8</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
@@ -2436,14 +2361,12 @@
     <row r="7" spans="1:38" ht="19.5" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
       <c r="E7" s="59"/>
-      <c r="F7" s="60" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="60"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -2455,7 +2378,7 @@
       <c r="O7" s="44"/>
       <c r="P7" s="45"/>
       <c r="Q7" s="61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R7" s="62"/>
       <c r="S7" s="44"/>
@@ -2470,8 +2393,8 @@
       <c r="AB7" s="44"/>
       <c r="AC7" s="44"/>
       <c r="AD7" s="45"/>
-      <c r="AE7" s="89" t="s">
-        <v>16</v>
+      <c r="AE7" s="88" t="s">
+        <v>11</v>
       </c>
       <c r="AF7" s="44"/>
       <c r="AG7" s="44"/>
@@ -2482,14 +2405,12 @@
     <row r="8" spans="1:38" ht="19.5" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
-        <v>18</v>
-      </c>
+      <c r="F8" s="60"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
@@ -2501,36 +2422,28 @@
       <c r="O8" s="44"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="98" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="R8" s="98"/>
-      <c r="S8" s="54">
-        <v>1992</v>
-      </c>
+      <c r="S8" s="54"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
       <c r="V8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="11"/>
-      <c r="X8" s="54">
-        <v>2</v>
-      </c>
+      <c r="X8" s="54"/>
       <c r="Y8" s="55"/>
       <c r="Z8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="56">
-        <v>24</v>
-      </c>
+      <c r="AA8" s="56"/>
       <c r="AB8" s="45"/>
       <c r="AC8" s="57" t="s">
         <v>3</v>
       </c>
       <c r="AD8" s="45"/>
-      <c r="AE8" s="43" t="s">
-        <v>20</v>
-      </c>
+      <c r="AE8" s="43"/>
       <c r="AF8" s="44"/>
       <c r="AG8" s="44"/>
       <c r="AH8" s="44"/>
@@ -2540,23 +2453,19 @@
     <row r="9" spans="1:38" ht="19.5" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
-      <c r="F9" s="96" t="s">
-        <v>22</v>
+      <c r="F9" s="95" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="63"/>
-      <c r="H9" s="103" t="s">
-        <v>23</v>
-      </c>
+      <c r="H9" s="96"/>
       <c r="I9" s="63"/>
       <c r="J9" s="55"/>
-      <c r="K9" s="92" t="s">
-        <v>24</v>
-      </c>
+      <c r="K9" s="91"/>
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
@@ -2586,14 +2495,12 @@
     <row r="10" spans="1:38" ht="19.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="58" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="60" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="60"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -2603,16 +2510,14 @@
       <c r="M10" s="44"/>
       <c r="N10" s="45"/>
       <c r="O10" s="97" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="44"/>
       <c r="S10" s="45"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="93" t="s">
-        <v>28</v>
-      </c>
+      <c r="U10" s="92"/>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
       <c r="X10" s="63"/>
@@ -2632,17 +2537,15 @@
     <row r="11" spans="1:38" ht="19.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="58" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>31</v>
-      </c>
+      <c r="F11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="87"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -2675,10 +2578,10 @@
     </row>
     <row r="12" spans="1:38" ht="19.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -2717,41 +2620,41 @@
     </row>
     <row r="13" spans="1:38" ht="19.5" customHeight="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="89" t="s">
-        <v>34</v>
+      <c r="B13" s="88" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="45"/>
-      <c r="H13" s="89" t="s">
-        <v>35</v>
+      <c r="H13" s="88" t="s">
+        <v>23</v>
       </c>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="89" t="s">
-        <v>36</v>
+      <c r="L13" s="88" t="s">
+        <v>24</v>
       </c>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
       <c r="O13" s="45"/>
-      <c r="P13" s="89" t="s">
-        <v>37</v>
+      <c r="P13" s="88" t="s">
+        <v>25</v>
       </c>
       <c r="Q13" s="44"/>
       <c r="R13" s="45"/>
-      <c r="S13" s="89" t="s">
-        <v>38</v>
+      <c r="S13" s="88" t="s">
+        <v>26</v>
       </c>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
       <c r="X13" s="45"/>
-      <c r="Y13" s="89" t="s">
-        <v>39</v>
+      <c r="Y13" s="88" t="s">
+        <v>27</v>
       </c>
       <c r="Z13" s="44"/>
       <c r="AA13" s="44"/>
@@ -2767,42 +2670,30 @@
     </row>
     <row r="14" spans="1:38" ht="19.5" customHeight="1">
       <c r="A14" s="16"/>
-      <c r="B14" s="84" t="s">
-        <v>40</v>
-      </c>
+      <c r="B14" s="83"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="84" t="s">
-        <v>41</v>
-      </c>
+      <c r="H14" s="83"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="85">
-        <v>1234</v>
-      </c>
+      <c r="L14" s="84"/>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
       <c r="O14" s="45"/>
-      <c r="P14" s="84" t="s">
-        <v>42</v>
-      </c>
+      <c r="P14" s="83"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
-      <c r="S14" s="86">
-        <v>12345678</v>
-      </c>
+      <c r="S14" s="85"/>
       <c r="T14" s="44"/>
       <c r="U14" s="44"/>
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
       <c r="X14" s="45"/>
-      <c r="Y14" s="87" t="s">
-        <v>43</v>
-      </c>
+      <c r="Y14" s="86"/>
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="44"/>
@@ -2817,10 +2708,10 @@
     </row>
     <row r="15" spans="1:38" ht="19.5" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -2844,25 +2735,25 @@
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
+      <c r="Y15" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="4"/>
     </row>
     <row r="16" spans="1:38" ht="19.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="58" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -2873,7 +2764,7 @@
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="58" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
@@ -2882,7 +2773,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="59"/>
       <c r="R16" s="58" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="S16" s="59"/>
       <c r="T16" s="59"/>
@@ -2890,13 +2781,13 @@
       <c r="V16" s="59"/>
       <c r="W16" s="59"/>
       <c r="X16" s="58" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
       <c r="AA16" s="59"/>
       <c r="AB16" s="58" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AC16" s="59"/>
       <c r="AD16" s="59"/>
@@ -2909,9 +2800,7 @@
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="70" t="s">
-        <v>51</v>
-      </c>
+      <c r="B17" s="70"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -2920,32 +2809,26 @@
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
-      <c r="K17" s="70" t="s">
-        <v>52</v>
-      </c>
+      <c r="K17" s="70"/>
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
       <c r="Q17" s="59"/>
-      <c r="R17" s="73">
-        <v>23000</v>
-      </c>
+      <c r="R17" s="73"/>
       <c r="S17" s="59"/>
       <c r="T17" s="59"/>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
       <c r="W17" s="59"/>
-      <c r="X17" s="74">
-        <v>2</v>
-      </c>
+      <c r="X17" s="74"/>
       <c r="Y17" s="59"/>
       <c r="Z17" s="59"/>
       <c r="AA17" s="59"/>
-      <c r="AB17" s="73">
+      <c r="AB17" s="73" t="str">
         <f t="shared" ref="AB17:AB23" si="0">IF(X17&lt;&gt;"",R17*X17,"")</f>
-        <v>46000</v>
+        <v/>
       </c>
       <c r="AC17" s="59"/>
       <c r="AD17" s="59"/>
@@ -2958,9 +2841,7 @@
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="70" t="s">
-        <v>53</v>
-      </c>
+      <c r="B18" s="70"/>
       <c r="C18" s="59"/>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -2969,32 +2850,26 @@
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
-      <c r="K18" s="70" t="s">
-        <v>54</v>
-      </c>
+      <c r="K18" s="70"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
-      <c r="R18" s="73">
-        <v>13000</v>
-      </c>
+      <c r="R18" s="73"/>
       <c r="S18" s="59"/>
       <c r="T18" s="59"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
       <c r="W18" s="59"/>
-      <c r="X18" s="74">
-        <v>4</v>
-      </c>
+      <c r="X18" s="74"/>
       <c r="Y18" s="59"/>
       <c r="Z18" s="59"/>
       <c r="AA18" s="59"/>
-      <c r="AB18" s="73">
+      <c r="AB18" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>52000</v>
+        <v/>
       </c>
       <c r="AC18" s="59"/>
       <c r="AD18" s="59"/>
@@ -3007,9 +2882,7 @@
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="70" t="s">
-        <v>55</v>
-      </c>
+      <c r="B19" s="70"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
@@ -3018,32 +2891,26 @@
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="59"/>
-      <c r="K19" s="70" t="s">
-        <v>56</v>
-      </c>
+      <c r="K19" s="70"/>
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="59"/>
-      <c r="R19" s="73">
-        <v>14000</v>
-      </c>
+      <c r="R19" s="73"/>
       <c r="S19" s="59"/>
       <c r="T19" s="59"/>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
       <c r="W19" s="59"/>
-      <c r="X19" s="74">
-        <v>1</v>
-      </c>
+      <c r="X19" s="74"/>
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
       <c r="AA19" s="59"/>
-      <c r="AB19" s="73">
+      <c r="AB19" s="73" t="str">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v/>
       </c>
       <c r="AC19" s="59"/>
       <c r="AD19" s="59"/>
@@ -3221,13 +3088,13 @@
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="78" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="73">
         <f>AB24*100/110</f>
-        <v>101818.18181818182</v>
+        <v>0</v>
       </c>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
@@ -3245,20 +3112,20 @@
       <c r="S24" s="59"/>
       <c r="T24" s="59"/>
       <c r="U24" s="58" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="V24" s="59"/>
       <c r="W24" s="59"/>
       <c r="X24" s="74">
         <f>SUM(X17:AA23)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="59"/>
       <c r="Z24" s="59"/>
       <c r="AA24" s="59"/>
       <c r="AB24" s="73">
         <f>SUM(AB17:AH23)</f>
-        <v>112000</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="59"/>
       <c r="AD24" s="59"/>
@@ -3271,10 +3138,10 @@
     </row>
     <row r="25" spans="1:36" ht="19.5" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -3298,14 +3165,14 @@
       <c r="V25" s="36"/>
       <c r="W25" s="37"/>
       <c r="X25" s="80" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="Y25" s="81"/>
       <c r="Z25" s="81"/>
       <c r="AA25" s="82"/>
       <c r="AB25" s="101">
         <f>AB24-E24</f>
-        <v>10181.818181818177</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="81"/>
       <c r="AD25" s="81"/>
@@ -3319,7 +3186,7 @@
     <row r="26" spans="1:36" ht="10.5" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="68" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -3359,7 +3226,7 @@
     <row r="27" spans="1:36" ht="9" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="68" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -3399,7 +3266,7 @@
     <row r="28" spans="1:36" ht="9" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="68" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -3439,7 +3306,7 @@
     <row r="29" spans="1:36" ht="9.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="68" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -3479,7 +3346,7 @@
     <row r="30" spans="1:36" ht="9" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="68" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
@@ -3519,7 +3386,7 @@
     <row r="31" spans="1:36" ht="9" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="68" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -3559,7 +3426,7 @@
     <row r="32" spans="1:36" ht="8" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="72" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
@@ -3599,7 +3466,7 @@
     <row r="33" spans="1:36" ht="9.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="68" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="68"/>
@@ -3639,7 +3506,7 @@
     <row r="34" spans="1:36" ht="8" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="68" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -3679,7 +3546,7 @@
     <row r="35" spans="1:36" ht="9" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="68" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -3719,7 +3586,7 @@
     <row r="36" spans="1:36" ht="8" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="68" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -3759,7 +3626,7 @@
     <row r="37" spans="1:36" ht="8" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="68" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
@@ -3799,7 +3666,7 @@
     <row r="38" spans="1:36" ht="8" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="68" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
@@ -3839,7 +3706,7 @@
     <row r="39" spans="1:36" ht="9" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="68" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
@@ -3879,7 +3746,7 @@
     <row r="40" spans="1:36" ht="9.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="68" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
@@ -3957,7 +3824,7 @@
     <row r="42" spans="1:36" ht="19.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="75" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
@@ -3974,7 +3841,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="75" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
@@ -4017,7 +3884,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="22" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="U43" s="64"/>
       <c r="V43" s="63"/>
@@ -4064,7 +3931,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="99" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AB44" s="99"/>
       <c r="AC44" s="99"/>
@@ -4079,7 +3946,7 @@
     <row r="45" spans="1:36" ht="19.5" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="100" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C45" s="100"/>
       <c r="D45" s="100"/>
@@ -4097,7 +3964,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="65" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="S45" s="39"/>
       <c r="T45" s="39"/>
@@ -4113,7 +3980,7 @@
       <c r="AD45" s="66"/>
       <c r="AE45" s="67"/>
       <c r="AF45" s="79" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="AG45" s="67"/>
       <c r="AH45" s="4"/>
@@ -4160,10 +4027,10 @@
     </row>
     <row r="47" spans="1:36" ht="19.5" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B47" s="77" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -4203,7 +4070,7 @@
     <row r="48" spans="1:36" ht="19.5" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="102" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C48" s="102"/>
       <c r="D48" s="102"/>
@@ -4281,7 +4148,7 @@
     <row r="50" spans="1:36" ht="19.5" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="32" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
@@ -4359,7 +4226,7 @@
     <row r="52" spans="1:36" ht="19.5" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="38" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
@@ -4486,7 +4353,6 @@
     <mergeCell ref="R21:W21"/>
     <mergeCell ref="X21:AA21"/>
     <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AE15:AH15"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="K16:Q16"/>
     <mergeCell ref="R16:W16"/>
@@ -4498,6 +4364,7 @@
     <mergeCell ref="Y14:AI14"/>
     <mergeCell ref="AB16:AI16"/>
     <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="Y15:AH15"/>
     <mergeCell ref="B42:N42"/>
     <mergeCell ref="B43:N43"/>
     <mergeCell ref="B47:H47"/>

--- a/public/excel/purchase_offer_form_template.xlsx
+++ b/public/excel/purchase_offer_form_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiga/PhpstormProjects/piyo-kaitori/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CF6D88-D1BD-D143-9AEC-A4DFFCB7857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3785D4E7-6F93-534E-A9C8-734AA54D50B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -364,6 +364,11 @@
     </font>
     <font>
       <sz val="24"/>
+      <color indexed="8"/>
+      <name val="Noto Sans JP Thin Regular"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color indexed="8"/>
       <name val="Noto Sans JP Thin Regular"/>
     </font>
@@ -716,11 +721,150 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,12 +884,6 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,15 +893,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,152 +920,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2071,10 +2074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AJ53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2105,32 +2108,29 @@
     <col min="34" max="34" width="3.5" style="1" customWidth="1"/>
     <col min="35" max="35" width="1.33203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="4.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="14.5" style="1"/>
+    <col min="37" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19.5" customHeight="1">
+    <row r="1" spans="1:36" ht="19.5" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -2149,410 +2149,411 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="28.5" customHeight="1">
+    <row r="2" spans="1:36" ht="28.5" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="38" t="s">
+      <c r="B2" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="38" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="38" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="38" t="s">
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="39"/>
+      <c r="AI2" s="71"/>
       <c r="AJ2" s="4"/>
     </row>
-    <row r="3" spans="1:38" ht="19.5" customHeight="1">
+    <row r="3" spans="1:36" ht="19.5" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
       <c r="L3" s="6"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:38" ht="33" customHeight="1">
+    <row r="4" spans="1:36" ht="33" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="45"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="48"/>
       <c r="AJ4" s="9"/>
     </row>
-    <row r="5" spans="1:38" ht="19.5" customHeight="1">
+    <row r="5" spans="1:36" ht="19.5" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="45"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="48"/>
       <c r="AJ5" s="9"/>
-      <c r="AL5" s="30"/>
-    </row>
-    <row r="6" spans="1:38" ht="10.5" customHeight="1">
+    </row>
+    <row r="6" spans="1:36" ht="10.5" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="94" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="45"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
       <c r="AJ6" s="9"/>
     </row>
-    <row r="7" spans="1:38" ht="19.5" customHeight="1">
+    <row r="7" spans="1:36" ht="19.5" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="60"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="61" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="62"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="88" t="s">
+      <c r="R7" s="100"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="45"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="48"/>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:38" ht="19.5" customHeight="1">
+    <row r="8" spans="1:36" ht="19.5" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="60"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="98" t="s">
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="98"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
       <c r="V8" s="10" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="11"/>
-      <c r="X8" s="54"/>
+      <c r="X8" s="96"/>
       <c r="Y8" s="55"/>
       <c r="Z8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="57" t="s">
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="45"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="48"/>
       <c r="AJ8" s="9"/>
     </row>
-    <row r="9" spans="1:38" ht="19.5" customHeight="1">
+    <row r="9" spans="1:36" ht="19.5" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="95" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="63"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="55"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="45"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="48"/>
       <c r="AJ9" s="9"/>
     </row>
-    <row r="10" spans="1:38" ht="19.5" customHeight="1">
+    <row r="10" spans="1:36" ht="19.5" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="60"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="97" t="s">
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="63"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="63"/>
-      <c r="AG10" s="63"/>
-      <c r="AH10" s="63"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
       <c r="AI10" s="55"/>
       <c r="AJ10" s="9"/>
     </row>
-    <row r="11" spans="1:38" ht="19.5" customHeight="1">
+    <row r="11" spans="1:36" ht="19.5" customHeight="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -2576,1211 +2577,1211 @@
       <c r="AI11" s="14"/>
       <c r="AJ11" s="9"/>
     </row>
-    <row r="12" spans="1:38" ht="19.5" customHeight="1">
+    <row r="12" spans="1:36" ht="19.5" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
       <c r="AJ12" s="4"/>
     </row>
-    <row r="13" spans="1:38" ht="19.5" customHeight="1">
+    <row r="13" spans="1:36" ht="19.5" customHeight="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="88" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="88" t="s">
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="88" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="88" t="s">
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="88" t="s">
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="45"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" spans="1:38" ht="19.5" customHeight="1">
+    <row r="14" spans="1:36" ht="19.5" customHeight="1">
       <c r="A14" s="16"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="45"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="48"/>
       <c r="AJ14" s="9"/>
     </row>
-    <row r="15" spans="1:38" ht="19.5" customHeight="1">
+    <row r="15" spans="1:36" ht="19.5" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="103" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="82"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="103"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="103"/>
-      <c r="AH15" s="103"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="4"/>
     </row>
-    <row r="16" spans="1:38" ht="19.5" customHeight="1">
+    <row r="16" spans="1:36" ht="19.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="58" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="58" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="58" t="s">
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="58" t="s">
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
       <c r="AJ16" s="4"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="73" t="str">
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="34" t="str">
         <f t="shared" ref="AB17:AB23" si="0">IF(X17&lt;&gt;"",R17*X17,"")</f>
         <v/>
       </c>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
       <c r="AJ17" s="4"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="74"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="73" t="str">
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
       <c r="AJ18" s="4"/>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="74"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="73" t="str">
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
       <c r="AJ19" s="4"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="70" t="str">
+      <c r="B20" s="41"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
       <c r="AJ20" s="4"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="70" t="str">
+      <c r="B21" s="41"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
       <c r="AJ21" s="4"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="70" t="str">
+      <c r="B22" s="41"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
       <c r="AJ22" s="4"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="70" t="str">
+      <c r="B23" s="41"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
       <c r="AJ23" s="4"/>
     </row>
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="73">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34">
         <f>AB24*100/110</f>
         <v>0</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="58" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="74">
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="40">
         <f>SUM(X17:AA23)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="73">
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="34">
         <f>SUM(AB17:AH23)</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35"/>
       <c r="AJ24" s="4"/>
     </row>
     <row r="25" spans="1:36" ht="19.5" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="80" t="s">
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="101">
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="37">
         <f>AB24-E24</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="81"/>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="82"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="39"/>
       <c r="AJ25" s="9"/>
     </row>
     <row r="26" spans="1:36" ht="10.5" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
       <c r="AJ26" s="4"/>
     </row>
     <row r="27" spans="1:36" ht="9" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="68"/>
-      <c r="AA27" s="68"/>
-      <c r="AB27" s="68"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="68"/>
-      <c r="AE27" s="68"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
       <c r="AJ27" s="4"/>
     </row>
     <row r="28" spans="1:36" ht="9" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
       <c r="AJ28" s="4"/>
     </row>
     <row r="29" spans="1:36" ht="9.75" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="76"/>
+      <c r="U29" s="76"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
       <c r="AJ29" s="4"/>
     </row>
     <row r="30" spans="1:36" ht="9" customHeight="1">
       <c r="A30" s="4"/>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
       <c r="AJ30" s="4"/>
     </row>
     <row r="31" spans="1:36" ht="9" customHeight="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="76"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="76"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
       <c r="AJ31" s="4"/>
     </row>
     <row r="32" spans="1:36" ht="8" customHeight="1">
       <c r="A32" s="4"/>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
       <c r="AJ32" s="4"/>
     </row>
     <row r="33" spans="1:36" ht="9.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
       <c r="AJ33" s="4"/>
     </row>
     <row r="34" spans="1:36" ht="8" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="76"/>
       <c r="AJ34" s="4"/>
     </row>
     <row r="35" spans="1:36" ht="9" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="76"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="76"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
       <c r="AJ35" s="4"/>
     </row>
     <row r="36" spans="1:36" ht="8" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
       <c r="AJ36" s="4"/>
     </row>
     <row r="37" spans="1:36" ht="8" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="76"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
       <c r="AJ37" s="4"/>
     </row>
     <row r="38" spans="1:36" ht="8" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="76"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="76"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
       <c r="AJ38" s="4"/>
     </row>
     <row r="39" spans="1:36" ht="9" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="76"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="76"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="76"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
       <c r="AJ39" s="4"/>
     </row>
     <row r="40" spans="1:36" ht="9.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="76"/>
+      <c r="AD40" s="76"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
       <c r="AJ40" s="4"/>
     </row>
     <row r="41" spans="1:36" ht="8" customHeight="1">
@@ -3823,61 +3824,61 @@
     </row>
     <row r="42" spans="1:36" ht="19.5" customHeight="1">
       <c r="A42" s="18"/>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="48"/>
       <c r="O42" s="9"/>
       <c r="P42" s="18"/>
-      <c r="Q42" s="75" t="s">
+      <c r="Q42" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
-      <c r="AE42" s="44"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="45"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="47"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="47"/>
+      <c r="Y42" s="47"/>
+      <c r="Z42" s="47"/>
+      <c r="AA42" s="47"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47"/>
+      <c r="AF42" s="47"/>
+      <c r="AG42" s="47"/>
+      <c r="AH42" s="48"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="4"/>
     </row>
     <row r="43" spans="1:36" ht="19.5" customHeight="1">
       <c r="A43" s="18"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="45"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="48"/>
       <c r="O43" s="9"/>
       <c r="P43" s="18"/>
       <c r="Q43" s="11"/>
@@ -3886,19 +3887,19 @@
       <c r="T43" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="U43" s="64"/>
-      <c r="V43" s="63"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="63"/>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="63"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="63"/>
-      <c r="AD43" s="63"/>
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="63"/>
-      <c r="AG43" s="63"/>
+      <c r="U43" s="101"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
       <c r="AH43" s="14"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="4"/>
@@ -3930,59 +3931,59 @@
       <c r="X44" s="19"/>
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
-      <c r="AA44" s="99" t="s">
+      <c r="AA44" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AB44" s="99"/>
-      <c r="AC44" s="99"/>
-      <c r="AD44" s="99"/>
-      <c r="AE44" s="99"/>
-      <c r="AF44" s="99"/>
-      <c r="AG44" s="99"/>
-      <c r="AH44" s="99"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
+      <c r="AG44" s="31"/>
+      <c r="AH44" s="31"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
     </row>
     <row r="45" spans="1:36" ht="19.5" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="65" t="s">
+      <c r="R45" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="67"/>
-      <c r="AF45" s="79" t="s">
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="50"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="AG45" s="67"/>
+      <c r="AG45" s="50"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -4029,15 +4030,15 @@
       <c r="A47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -4069,21 +4070,21 @@
     </row>
     <row r="48" spans="1:36" ht="19.5" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -4147,42 +4148,42 @@
     </row>
     <row r="50" spans="1:36" ht="19.5" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="79"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="79"/>
+      <c r="T50" s="79"/>
+      <c r="U50" s="79"/>
+      <c r="V50" s="79"/>
+      <c r="W50" s="79"/>
+      <c r="X50" s="79"/>
+      <c r="Y50" s="79"/>
+      <c r="Z50" s="79"/>
+      <c r="AA50" s="79"/>
+      <c r="AB50" s="79"/>
+      <c r="AC50" s="79"/>
+      <c r="AD50" s="79"/>
+      <c r="AE50" s="79"/>
+      <c r="AF50" s="79"/>
+      <c r="AG50" s="79"/>
+      <c r="AH50" s="79"/>
+      <c r="AI50" s="79"/>
       <c r="AJ50" s="4"/>
     </row>
     <row r="51" spans="1:36" ht="19.5" customHeight="1">
@@ -4225,42 +4226,42 @@
     </row>
     <row r="52" spans="1:36" ht="19.5" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38"/>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="38"/>
-      <c r="AD52" s="38"/>
-      <c r="AE52" s="38"/>
-      <c r="AF52" s="38"/>
-      <c r="AG52" s="38"/>
-      <c r="AH52" s="38"/>
-      <c r="AI52" s="38"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="33"/>
+      <c r="AD52" s="33"/>
+      <c r="AE52" s="33"/>
+      <c r="AF52" s="33"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
       <c r="AJ52" s="4"/>
     </row>
     <row r="53" spans="1:36" ht="19.5" customHeight="1">
@@ -4303,6 +4304,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="B50:AI50"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B12:AI12"/>
+    <mergeCell ref="B15:X15"/>
+    <mergeCell ref="B25:W25"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="Q7:AD7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U43:AG43"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="B36:AI36"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B37:AI37"/>
+    <mergeCell ref="B38:AI38"/>
+    <mergeCell ref="B39:AI39"/>
+    <mergeCell ref="B40:AI40"/>
+    <mergeCell ref="X22:AA22"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="B30:AI30"/>
+    <mergeCell ref="B31:AI31"/>
+    <mergeCell ref="B32:AI32"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="X19:AA19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="B42:N42"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="Q42:AH42"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AA23"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="B26:AI26"/>
+    <mergeCell ref="B27:AI27"/>
+    <mergeCell ref="B28:AI28"/>
+    <mergeCell ref="B29:AI29"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="B33:AI33"/>
+    <mergeCell ref="B34:AI34"/>
+    <mergeCell ref="B35:AI35"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="X21:AA21"/>
+    <mergeCell ref="X20:AA20"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:X14"/>
+    <mergeCell ref="Y14:AI14"/>
+    <mergeCell ref="AB16:AI16"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="N3:AI3"/>
+    <mergeCell ref="X4:AI4"/>
+    <mergeCell ref="AE7:AI7"/>
+    <mergeCell ref="AE8:AI8"/>
+    <mergeCell ref="K9:AI9"/>
+    <mergeCell ref="U10:AI10"/>
+    <mergeCell ref="Y13:AI13"/>
+    <mergeCell ref="H5:AI5"/>
+    <mergeCell ref="H6:AI6"/>
+    <mergeCell ref="S13:X13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="AA44:AH44"/>
     <mergeCell ref="B45:N45"/>
     <mergeCell ref="B52:AI52"/>
@@ -4327,116 +4438,6 @@
     <mergeCell ref="K22:Q22"/>
     <mergeCell ref="R22:W22"/>
     <mergeCell ref="B48:N48"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="N3:AI3"/>
-    <mergeCell ref="X4:AI4"/>
-    <mergeCell ref="AE7:AI7"/>
-    <mergeCell ref="AE8:AI8"/>
-    <mergeCell ref="K9:AI9"/>
-    <mergeCell ref="U10:AI10"/>
-    <mergeCell ref="Y13:AI13"/>
-    <mergeCell ref="H5:AI5"/>
-    <mergeCell ref="H6:AI6"/>
-    <mergeCell ref="S13:X13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="F10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="X21:AA21"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:X14"/>
-    <mergeCell ref="Y14:AI14"/>
-    <mergeCell ref="AB16:AI16"/>
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="Q42:AH42"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AA23"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="B26:AI26"/>
-    <mergeCell ref="B27:AI27"/>
-    <mergeCell ref="B28:AI28"/>
-    <mergeCell ref="B29:AI29"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="B33:AI33"/>
-    <mergeCell ref="B34:AI34"/>
-    <mergeCell ref="B35:AI35"/>
-    <mergeCell ref="B37:AI37"/>
-    <mergeCell ref="B38:AI38"/>
-    <mergeCell ref="B39:AI39"/>
-    <mergeCell ref="B40:AI40"/>
-    <mergeCell ref="X22:AA22"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B30:AI30"/>
-    <mergeCell ref="B31:AI31"/>
-    <mergeCell ref="B32:AI32"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="X19:AA19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="B1:S2"/>
-    <mergeCell ref="B50:AI50"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B12:AI12"/>
-    <mergeCell ref="B15:X15"/>
-    <mergeCell ref="B25:W25"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="B5:G6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="Q7:AD7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U43:AG43"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="B36:AI36"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
